--- a/KS2/Year-4.xlsx
+++ b/KS2/Year-4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
   <si>
     <t>Lesson</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>Learners should design a program that includes count-controlled loops</t>
+  </si>
+  <si>
+    <t>Nine-Twelve</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,183 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1032,7 +1211,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
@@ -1114,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>53</v>
@@ -1153,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>53</v>
@@ -1192,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>53</v>
@@ -1231,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>50</v>
@@ -1270,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>50</v>
@@ -1309,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>50</v>
@@ -1348,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>50</v>
@@ -1387,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>50</v>
@@ -1426,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>50</v>
@@ -1465,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>55</v>
@@ -1504,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>55</v>
@@ -1543,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>55</v>
@@ -1582,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>56</v>
@@ -1619,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>56</v>
@@ -1656,7 +1835,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>56</v>
@@ -1693,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>58</v>
@@ -1732,7 +1911,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>58</v>
@@ -1771,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>58</v>
@@ -1810,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>51</v>
@@ -1849,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>51</v>
@@ -1888,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>51</v>
@@ -1927,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>51</v>
@@ -1966,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>51</v>
@@ -2005,7 +2184,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>51</v>
@@ -2251,63 +2430,63 @@
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
   </autoFilter>
-  <conditionalFormatting sqref="M3:M35 B3:L5">
-    <cfRule type="expression" dxfId="11" priority="19">
+  <conditionalFormatting sqref="M3:M35 B3:L5 C6:C12">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$M3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M35 B3:L5">
-    <cfRule type="expression" dxfId="10" priority="21">
+  <conditionalFormatting sqref="M3:M35 B3:L5 C6:C12">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>$M3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L20">
-    <cfRule type="expression" dxfId="9" priority="27">
+    <cfRule type="expression" dxfId="7" priority="27">
       <formula>$M6=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L20">
-    <cfRule type="expression" dxfId="8" priority="29">
+    <cfRule type="expression" dxfId="6" priority="29">
       <formula>$M6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L11">
-    <cfRule type="expression" dxfId="7" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>$M24=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L11">
-    <cfRule type="expression" dxfId="6" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$M24=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:L38 B21:L26">
-    <cfRule type="expression" dxfId="5" priority="34">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>$M18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:L38 B21:L26">
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="30" priority="36">
       <formula>$M18=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L20">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>$Z18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L20">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>$Z18=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L20">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$Z19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L20">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$Z19=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/KS2/Year-4.xlsx
+++ b/KS2/Year-4.xlsx
@@ -146,15 +146,9 @@
     <t>Programming (PR)</t>
   </si>
   <si>
-    <t>The Internet</t>
-  </si>
-  <si>
     <t>Computing Concepts (CC)</t>
   </si>
   <si>
-    <t>Photo editing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Computing Concepts (CC) </t>
   </si>
   <si>
@@ -168,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Repetition </t>
-  </si>
-  <si>
-    <t>Audio Creation</t>
   </si>
   <si>
     <t xml:space="preserve"> -Examine how different types of malware causes problems for computer systems
@@ -377,18 +368,12 @@
     <t>Nine-Twelve</t>
   </si>
   <si>
-    <t xml:space="preserve">https://kiddle.co                                https://crystaledtech.com    </t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                                               Microsoft Paint (Offline)                                                                                            paintz.app (Online)     </t>
   </si>
   <si>
     <t xml:space="preserve">https://kiddle.co                                https://crystaledtech.com     </t>
   </si>
   <si>
-    <t xml:space="preserve">https://kiddle.co                                https://crystaledtech.com                                 https://blockly.games                                https://musiclab.chromeexperiments.com/  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Web Browsers                                                     https://kiddle.co                                https://crystaledtech.com                                 https://blockly.games                                https://musiclab.chromeexperiments.com/    </t>
   </si>
   <si>
@@ -399,13 +384,28 @@
   </si>
   <si>
     <t>https://www.blockly.games                  https://www.scratch.mit.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kiddle.co                                https://crystaledtech.com                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kiddle.co                                https://crystaledtech.com                                 https://blockly.games                                https://musiclab.chromeexperiments.com/                       </t>
+  </si>
+  <si>
+    <t>Introduction to the Internet</t>
+  </si>
+  <si>
+    <t>Introduction to Photo Editing</t>
+  </si>
+  <si>
+    <t>Introduction to Audio Creation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -465,6 +465,22 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial"/>
@@ -640,7 +656,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -745,24 +761,171 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1081,11 +1244,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
@@ -1095,7 +1258,7 @@
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="26" style="21" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="27" customWidth="1"/>
     <col min="7" max="7" width="16" style="16" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="16" customWidth="1"/>
     <col min="9" max="9" width="42.7109375" customWidth="1"/>
@@ -1159,8 +1322,8 @@
         <v>35</v>
       </c>
       <c r="M2" s="31"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="69" customHeight="1">
       <c r="A3" s="17">
@@ -1170,13 +1333,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -1191,13 +1354,13 @@
         <v>3</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M3" s="15">
         <v>1</v>
@@ -1211,13 +1374,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -1232,13 +1395,13 @@
         <v>4</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M4" s="6">
         <v>1</v>
@@ -1252,13 +1415,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
@@ -1273,10 +1436,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -1293,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -1314,10 +1477,10 @@
         <v>18</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>19</v>
@@ -1334,13 +1497,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -1355,13 +1518,13 @@
         <v>20</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M7" s="6">
         <v>1</v>
@@ -1375,13 +1538,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -1396,13 +1559,13 @@
         <v>21</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M8" s="9">
         <v>1</v>
@@ -1416,13 +1579,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4">
         <v>4</v>
@@ -1437,13 +1600,13 @@
         <v>22</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M9" s="12">
         <v>0</v>
@@ -1457,13 +1620,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -1478,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>24</v>
@@ -1498,13 +1661,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F11" s="7">
         <v>6</v>
@@ -1519,13 +1682,13 @@
         <v>25</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M11" s="13">
         <v>0</v>
@@ -1539,13 +1702,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1560,13 +1723,13 @@
         <v>7</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M12" s="13">
         <v>0</v>
@@ -1580,13 +1743,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -1601,10 +1764,10 @@
         <v>8</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>9</v>
@@ -1621,13 +1784,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
@@ -1642,13 +1805,13 @@
         <v>10</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M14" s="14">
         <v>0</v>
@@ -1662,13 +1825,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="22">
         <v>1</v>
@@ -1680,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M15" s="25"/>
     </row>
@@ -1701,13 +1864,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="22">
         <v>2</v>
@@ -1719,16 +1882,16 @@
         <v>2</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M16" s="25"/>
     </row>
@@ -1740,13 +1903,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="22">
         <v>3</v>
@@ -1758,16 +1921,16 @@
         <v>3</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M17" s="25"/>
     </row>
@@ -1779,13 +1942,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F18" s="20">
         <v>1</v>
@@ -1797,16 +1960,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>103</v>
+        <v>47</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M18" s="15">
         <v>1</v>
@@ -1820,13 +1983,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F19" s="19">
         <v>2</v>
@@ -1838,16 +2001,16 @@
         <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>103</v>
+        <v>48</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M19" s="6">
         <v>1</v>
@@ -1861,13 +2024,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F20" s="19">
         <v>3</v>
@@ -1879,13 +2042,13 @@
         <v>3</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>103</v>
+        <v>49</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>11</v>
@@ -1902,13 +2065,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="10">
         <v>1</v>
@@ -1922,14 +2085,14 @@
       <c r="I21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="40" t="s">
-        <v>104</v>
+      <c r="J21" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M21" s="6">
         <v>1</v>
@@ -1943,13 +2106,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -1963,14 +2126,14 @@
       <c r="I22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="40" t="s">
-        <v>104</v>
+      <c r="J22" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M22" s="6">
         <v>1</v>
@@ -1984,13 +2147,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" s="4">
         <v>3</v>
@@ -2004,14 +2167,14 @@
       <c r="I23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="40" t="s">
-        <v>104</v>
+      <c r="J23" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M23" s="9">
         <v>1</v>
@@ -2025,13 +2188,13 @@
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" s="4">
         <v>4</v>
@@ -2045,14 +2208,14 @@
       <c r="I24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="40" t="s">
-        <v>104</v>
+      <c r="J24" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M24" s="15">
         <v>1</v>
@@ -2066,13 +2229,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" s="4">
         <v>5</v>
@@ -2086,14 +2249,14 @@
       <c r="I25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="40" t="s">
-        <v>104</v>
+      <c r="J25" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M25" s="6">
         <v>1</v>
@@ -2107,13 +2270,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" s="7">
         <v>6</v>
@@ -2127,42 +2290,48 @@
       <c r="I26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="40" t="s">
-        <v>104</v>
+      <c r="J26" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="38.1" customHeight="1">
-      <c r="J27" s="39"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:13" ht="38.1" customHeight="1">
-      <c r="J28" s="39"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:13" ht="38.1" customHeight="1">
-      <c r="J29" s="39"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:13" ht="38.1" customHeight="1">
-      <c r="J30" s="39"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:13" ht="38.1" customHeight="1">
-      <c r="J31" s="39"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:13" ht="38.1" customHeight="1">
-      <c r="J32" s="39"/>
+      <c r="J32" s="38"/>
     </row>
     <row r="33" spans="10:10" ht="38.1" customHeight="1">
-      <c r="J33" s="39"/>
+      <c r="J33" s="38"/>
     </row>
     <row r="34" spans="10:10" ht="38.1" customHeight="1">
-      <c r="J34" s="39"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="10:10" ht="38.1" customHeight="1">
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="10:10" ht="38.1" customHeight="1">
+      <c r="J36" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:L26">
@@ -2172,73 +2341,73 @@
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
   </autoFilter>
-  <conditionalFormatting sqref="C6:C12 B3:L5 M3:M26">
-    <cfRule type="expression" dxfId="13" priority="19">
+  <conditionalFormatting sqref="C6:C12 M3:M26 B3:L5">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$M3=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C12 B3:L5 M3:M26">
-    <cfRule type="expression" dxfId="12" priority="21">
+  <conditionalFormatting sqref="C6:C12 M3:M26 B3:L5">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$M3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L20">
-    <cfRule type="expression" dxfId="11" priority="27">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>$M6=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L20">
-    <cfRule type="expression" dxfId="10" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>$M6=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:L8">
-    <cfRule type="expression" dxfId="9" priority="31">
+  <conditionalFormatting sqref="B6:L8 E7:E11">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$M24=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:L8">
-    <cfRule type="expression" dxfId="8" priority="33">
+  <conditionalFormatting sqref="B6:L8 E7:E11">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>$M24=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L26">
-    <cfRule type="expression" dxfId="7" priority="34">
+    <cfRule type="expression" dxfId="27" priority="34">
       <formula>$M18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L26">
-    <cfRule type="expression" dxfId="6" priority="36">
+    <cfRule type="expression" dxfId="26" priority="36">
       <formula>$M18=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L20">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>$Z18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L20">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>$Z18=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L20">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$Z19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L20">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$Z19=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:L11">
-    <cfRule type="expression" dxfId="1" priority="42">
+    <cfRule type="expression" dxfId="21" priority="42">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:L11">
-    <cfRule type="expression" dxfId="0" priority="44">
+    <cfRule type="expression" dxfId="20" priority="44">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/KS2/Year-4.xlsx
+++ b/KS2/Year-4.xlsx
@@ -155,9 +155,6 @@
     <t xml:space="preserve"> Digital Safety (DS)</t>
   </si>
   <si>
-    <t>Introduction of Digital Safety</t>
-  </si>
-  <si>
     <t xml:space="preserve">Media Creation (MC) </t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>Introduction to Audio Creation</t>
+  </si>
+  <si>
+    <t>Introduction to Digital Safety</t>
   </si>
 </sst>
 </file>
@@ -781,135 +781,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1247,8 +1119,8 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
@@ -1333,13 +1205,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -1354,13 +1226,13 @@
         <v>3</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="M3" s="15">
         <v>1</v>
@@ -1374,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -1395,13 +1267,13 @@
         <v>4</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="M4" s="6">
         <v>1</v>
@@ -1415,13 +1287,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
@@ -1436,10 +1308,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -1456,13 +1328,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -1477,10 +1349,10 @@
         <v>18</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>19</v>
@@ -1497,13 +1369,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -1518,13 +1390,13 @@
         <v>20</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="M7" s="6">
         <v>1</v>
@@ -1538,13 +1410,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -1559,13 +1431,13 @@
         <v>21</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="M8" s="9">
         <v>1</v>
@@ -1579,13 +1451,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="4">
         <v>4</v>
@@ -1600,13 +1472,13 @@
         <v>22</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="M9" s="12">
         <v>0</v>
@@ -1620,13 +1492,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -1641,10 +1513,10 @@
         <v>23</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>24</v>
@@ -1661,13 +1533,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7">
         <v>6</v>
@@ -1682,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="13">
         <v>0</v>
@@ -1702,13 +1574,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1723,13 +1595,13 @@
         <v>7</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="M12" s="13">
         <v>0</v>
@@ -1743,13 +1615,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -1764,10 +1636,10 @@
         <v>8</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>9</v>
@@ -1784,13 +1656,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
@@ -1805,13 +1677,13 @@
         <v>10</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="M14" s="14">
         <v>0</v>
@@ -1825,13 +1697,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F15" s="22">
         <v>1</v>
@@ -1843,16 +1715,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="M15" s="25"/>
     </row>
@@ -1864,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F16" s="22">
         <v>2</v>
@@ -1882,16 +1754,16 @@
         <v>2</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="25"/>
     </row>
@@ -1903,13 +1775,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F17" s="22">
         <v>3</v>
@@ -1921,16 +1793,16 @@
         <v>3</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K17" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>75</v>
       </c>
       <c r="M17" s="25"/>
     </row>
@@ -1942,13 +1814,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="20">
         <v>1</v>
@@ -1960,16 +1832,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="M18" s="15">
         <v>1</v>
@@ -1983,13 +1855,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="19">
         <v>2</v>
@@ -2001,16 +1873,16 @@
         <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="6">
         <v>1</v>
@@ -2024,13 +1896,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="19">
         <v>3</v>
@@ -2042,13 +1914,13 @@
         <v>3</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>11</v>
@@ -2065,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="10">
         <v>1</v>
@@ -2086,13 +1958,13 @@
         <v>12</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="M21" s="6">
         <v>1</v>
@@ -2106,13 +1978,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -2127,13 +1999,13 @@
         <v>13</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="M22" s="6">
         <v>1</v>
@@ -2147,13 +2019,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="4">
         <v>3</v>
@@ -2168,13 +2040,13 @@
         <v>14</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M23" s="9">
         <v>1</v>
@@ -2188,13 +2060,13 @@
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="4">
         <v>4</v>
@@ -2209,13 +2081,13 @@
         <v>15</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="M24" s="15">
         <v>1</v>
@@ -2229,13 +2101,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="4">
         <v>5</v>
@@ -2250,13 +2122,13 @@
         <v>16</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="M25" s="6">
         <v>1</v>
@@ -2270,13 +2142,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7">
         <v>6</v>
@@ -2291,13 +2163,13 @@
         <v>17</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M26" s="6">
         <v>1</v>
@@ -2342,72 +2214,72 @@
     <filterColumn colId="9"/>
   </autoFilter>
   <conditionalFormatting sqref="C6:C12 M3:M26 B3:L5">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$M3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C12 M3:M26 B3:L5">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>$M3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L20">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>$M6=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L20">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="12" priority="29">
       <formula>$M6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L8 E7:E11">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="11" priority="31">
       <formula>$M24=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L8 E7:E11">
-    <cfRule type="expression" dxfId="28" priority="33">
+    <cfRule type="expression" dxfId="10" priority="33">
       <formula>$M24=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L26">
-    <cfRule type="expression" dxfId="27" priority="34">
+    <cfRule type="expression" dxfId="9" priority="34">
       <formula>$M18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L26">
-    <cfRule type="expression" dxfId="26" priority="36">
+    <cfRule type="expression" dxfId="8" priority="36">
       <formula>$M18=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L20">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$Z18=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L20">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$Z18=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L20">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$Z19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:L20">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$Z19=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:L11">
-    <cfRule type="expression" dxfId="21" priority="42">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:L11">
-    <cfRule type="expression" dxfId="20" priority="44">
+    <cfRule type="expression" dxfId="2" priority="44">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
